--- a/NewestEdition/charts.xlsx
+++ b/NewestEdition/charts.xlsx
@@ -5,19 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik\Documents\0-UT\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik\Documents\0-UT\DiseasePropagator\NewestEdition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600FB917-0E09-48F3-AD8A-90AFC96307B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB6617-9CC0-4F9F-8C04-A36BBD17440A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{1972528D-A53F-4C58-A504-FC92DD821C5A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2" xr2:uid="{1972528D-A53F-4C58-A504-FC92DD821C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Average Days till All Healthy</t>
   </si>
@@ -65,12 +69,21 @@
   <si>
     <t>Counter</t>
   </si>
+  <si>
+    <t>=ROUND(Table1[@[Percentage Innoculated]], 3)</t>
+  </si>
+  <si>
+    <t>Infection Chance</t>
+  </si>
+  <si>
+    <t>Days Till Healthy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +111,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +131,14 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E1E1E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -139,12 +164,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -156,21 +205,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -252,6 +333,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1069,7 +1151,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$32</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1372,7 +1454,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2641,6 +2723,974 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>The Effect of Innoculation chance on the Progression of the Disease</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet2!$A$3:$A$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet2!$C$3:$C$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>495.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>508.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>473.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>390.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>357.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>378.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>326.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>285.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>278.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>263.55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>265.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>254.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>277.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>245.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>228.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>231.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>241.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>206.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>216.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>171.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>186.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>193.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>184.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>153.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>172.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>167.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>174.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>164.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>145.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>131.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>122.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>109.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>116.65</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>116.05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>115.35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100.55</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>111.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>96.15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>106.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>109.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>88.65</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95.35</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>81.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>79.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>69.55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63.45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61.45</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>68.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>57.55</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>56.95</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>56.15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49.35</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>51.15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>48.15</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>50.35</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43.45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45.45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40.65</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>37.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43.95</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>50.25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>50.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6D1-403D-BA04-0984B7417DB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="144224624"/>
+        <c:axId val="144225904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="144224624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Infect Chance Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144225904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144225904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days Till Healthy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144224624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19566,7 +20616,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -25365,7 +26415,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -31367,6 +32417,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -33021,6 +34111,526 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -33536,7 +35146,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -34052,7 +35662,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -34692,6 +36302,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08443B3A-5605-4B98-8543-BFBCC0B71F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -34765,7 +36418,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -34806,14 +36459,750 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>495.3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>486.15</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2</v>
+          </cell>
+          <cell r="C5">
+            <v>508.65</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>3</v>
+          </cell>
+          <cell r="C6">
+            <v>402.5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>4</v>
+          </cell>
+          <cell r="C7">
+            <v>473.25</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>5</v>
+          </cell>
+          <cell r="C8">
+            <v>383.8</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>6</v>
+          </cell>
+          <cell r="C9">
+            <v>387.6</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>7</v>
+          </cell>
+          <cell r="C10">
+            <v>397</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>8</v>
+          </cell>
+          <cell r="C11">
+            <v>390.05</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>9</v>
+          </cell>
+          <cell r="C12">
+            <v>383.75</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>10</v>
+          </cell>
+          <cell r="C13">
+            <v>357.1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>11</v>
+          </cell>
+          <cell r="C14">
+            <v>378.4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>12</v>
+          </cell>
+          <cell r="C15">
+            <v>340.5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>13</v>
+          </cell>
+          <cell r="C16">
+            <v>326.10000000000002</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>14</v>
+          </cell>
+          <cell r="C17">
+            <v>285.2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>15</v>
+          </cell>
+          <cell r="C18">
+            <v>278.75</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>16</v>
+          </cell>
+          <cell r="C19">
+            <v>263.55</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>17</v>
+          </cell>
+          <cell r="C20">
+            <v>265.25</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>18</v>
+          </cell>
+          <cell r="C21">
+            <v>254.9</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>19</v>
+          </cell>
+          <cell r="C22">
+            <v>277.8</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>20</v>
+          </cell>
+          <cell r="C23">
+            <v>245.9</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>21</v>
+          </cell>
+          <cell r="C24">
+            <v>228.95</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>22</v>
+          </cell>
+          <cell r="C25">
+            <v>231.8</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>23</v>
+          </cell>
+          <cell r="C26">
+            <v>241.1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>24</v>
+          </cell>
+          <cell r="C27">
+            <v>206.1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>25</v>
+          </cell>
+          <cell r="C28">
+            <v>216.95</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>26</v>
+          </cell>
+          <cell r="C29">
+            <v>171.2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>27</v>
+          </cell>
+          <cell r="C30">
+            <v>186.8</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>28</v>
+          </cell>
+          <cell r="C31">
+            <v>193.1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>29</v>
+          </cell>
+          <cell r="C32">
+            <v>184.5</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>30</v>
+          </cell>
+          <cell r="C33">
+            <v>153.15</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>31</v>
+          </cell>
+          <cell r="C34">
+            <v>172.7</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>32</v>
+          </cell>
+          <cell r="C35">
+            <v>167.9</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>33</v>
+          </cell>
+          <cell r="C36">
+            <v>174.95</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>34</v>
+          </cell>
+          <cell r="C37">
+            <v>164.45</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>35</v>
+          </cell>
+          <cell r="C38">
+            <v>145.75</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>36</v>
+          </cell>
+          <cell r="C39">
+            <v>131.94999999999999</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>37</v>
+          </cell>
+          <cell r="C40">
+            <v>122.05</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>38</v>
+          </cell>
+          <cell r="C41">
+            <v>109.25</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>39</v>
+          </cell>
+          <cell r="C42">
+            <v>116.65</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>40</v>
+          </cell>
+          <cell r="C43">
+            <v>116.05</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>41</v>
+          </cell>
+          <cell r="C44">
+            <v>115.35</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>42</v>
+          </cell>
+          <cell r="C45">
+            <v>100.55</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>43</v>
+          </cell>
+          <cell r="C46">
+            <v>111.4</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>44</v>
+          </cell>
+          <cell r="C47">
+            <v>96.15</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>45</v>
+          </cell>
+          <cell r="C48">
+            <v>106.6</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>46</v>
+          </cell>
+          <cell r="C49">
+            <v>109.4</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>47</v>
+          </cell>
+          <cell r="C50">
+            <v>88.65</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>48</v>
+          </cell>
+          <cell r="C51">
+            <v>95.35</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>49</v>
+          </cell>
+          <cell r="C52">
+            <v>83.9</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>50</v>
+          </cell>
+          <cell r="C53">
+            <v>80.599999999999994</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>51</v>
+          </cell>
+          <cell r="C54">
+            <v>81.099999999999994</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>52</v>
+          </cell>
+          <cell r="C55">
+            <v>79.650000000000006</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>53</v>
+          </cell>
+          <cell r="C56">
+            <v>73</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>54</v>
+          </cell>
+          <cell r="C57">
+            <v>83.8</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>55</v>
+          </cell>
+          <cell r="C58">
+            <v>69.55</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>56</v>
+          </cell>
+          <cell r="C59">
+            <v>63.45</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>57</v>
+          </cell>
+          <cell r="C60">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>58</v>
+          </cell>
+          <cell r="C61">
+            <v>61.45</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>59</v>
+          </cell>
+          <cell r="C62">
+            <v>68.849999999999994</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>60</v>
+          </cell>
+          <cell r="C63">
+            <v>60.8</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>61</v>
+          </cell>
+          <cell r="C64">
+            <v>57.55</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>62</v>
+          </cell>
+          <cell r="C65">
+            <v>56.95</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>63</v>
+          </cell>
+          <cell r="C66">
+            <v>56.15</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>64</v>
+          </cell>
+          <cell r="C67">
+            <v>49.35</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>65</v>
+          </cell>
+          <cell r="C68">
+            <v>51.15</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>66</v>
+          </cell>
+          <cell r="C69">
+            <v>50.9</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>67</v>
+          </cell>
+          <cell r="C70">
+            <v>48.15</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>68</v>
+          </cell>
+          <cell r="C71">
+            <v>50.35</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>69</v>
+          </cell>
+          <cell r="C72">
+            <v>43.45</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>70</v>
+          </cell>
+          <cell r="C73">
+            <v>46.9</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>71</v>
+          </cell>
+          <cell r="C74">
+            <v>45.45</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>72</v>
+          </cell>
+          <cell r="C75">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>73</v>
+          </cell>
+          <cell r="C76">
+            <v>43.2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>74</v>
+          </cell>
+          <cell r="C77">
+            <v>43.6</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>75</v>
+          </cell>
+          <cell r="C78">
+            <v>40.299999999999997</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>76</v>
+          </cell>
+          <cell r="C79">
+            <v>40.1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>77</v>
+          </cell>
+          <cell r="C80">
+            <v>39.9</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>78</v>
+          </cell>
+          <cell r="C81">
+            <v>40.65</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>79</v>
+          </cell>
+          <cell r="C82">
+            <v>37.75</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>80</v>
+          </cell>
+          <cell r="C83">
+            <v>38.9</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>81</v>
+          </cell>
+          <cell r="C84">
+            <v>42.2</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>82</v>
+          </cell>
+          <cell r="C85">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>83</v>
+          </cell>
+          <cell r="C86">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>84</v>
+          </cell>
+          <cell r="C87">
+            <v>43.5</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>85</v>
+          </cell>
+          <cell r="C88">
+            <v>43.95</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>86</v>
+          </cell>
+          <cell r="C89">
+            <v>50.25</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>87</v>
+          </cell>
+          <cell r="C90">
+            <v>54.2</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>88</v>
+          </cell>
+          <cell r="C91">
+            <v>52.5</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>89</v>
+          </cell>
+          <cell r="C92">
+            <v>50.85</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{958EFA75-687A-4EDC-BB14-001D77B6B39B}" name="Table1" displayName="Table1" ref="C2:D32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{958EFA75-687A-4EDC-BB14-001D77B6B39B}" name="Table1" displayName="Table1" ref="C2:D32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="C2:D32" xr:uid="{69992B0E-21B1-45CD-963E-1E2DB3D404BB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E53D9559-7A99-4754-848A-19CE35CA5057}" name="Percentage Innoculated" dataDxfId="6" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{E53D9559-7A99-4754-848A-19CE35CA5057}" name="Percentage Innoculated" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>B3/30</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{78842E60-E3E5-48C8-900F-BCD7B573DE0C}" name="Average Days till All Healthy" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{78842E60-E3E5-48C8-900F-BCD7B573DE0C}" name="Average Days till All Healthy" dataDxfId="6">
       <calculatedColumnFormula>AVERAGE(E3:F3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -34822,13 +37211,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8912543E-03FF-4175-BE84-CE46DDC38505}" name="Table2" displayName="Table2" ref="B2:C102" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8912543E-03FF-4175-BE84-CE46DDC38505}" name="Table2" displayName="Table2" ref="B2:C102" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B2:C102" xr:uid="{4F77129E-CA21-470A-B3A1-54C0DA7CB53B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{60E3C17B-ED9E-4CD5-B253-C58D21A4EB52}" name="Population Size" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{BA102518-F3F0-48AE-84A7-8D844E973B24}" name="Average Days till All Healthy" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{60E3C17B-ED9E-4CD5-B253-C58D21A4EB52}" name="Population Size" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BA102518-F3F0-48AE-84A7-8D844E973B24}" name="Average Days till All Healthy" dataDxfId="2">
       <calculatedColumnFormula>AVERAGE(D3:E3)</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EB330770-B7A6-4EF5-BC67-39689E87F8FA}" name="Table14" displayName="Table14" ref="B2:C92" totalsRowShown="0">
+  <autoFilter ref="B2:C92" xr:uid="{CC69AECD-AACE-4702-9C24-BEB24D2AE04F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FA716747-B171-41B6-8402-A24DBFE869E5}" name="Infection Chance" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>A3/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{9E06AE97-D2D7-40A4-8749-B914E595075B}" name="Days Till Healthy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -35131,10 +37533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ECD102-1298-4BC2-87A6-5C7CBE502516}">
-  <dimension ref="A2:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35142,9 +37544,15 @@
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
@@ -35157,13 +37565,17 @@
       <c r="F2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="e">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <f>B3/30</f>
         <v>0</v>
       </c>
@@ -35177,13 +37589,17 @@
       <c r="F3">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0\% &amp; 88.65\\ \hline</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <f t="shared" ref="C4:C32" si="0">B4/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -35197,13 +37613,17 @@
       <c r="F4">
         <v>83.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.033\% &amp; 77.45\\ \hline</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
@@ -35217,13 +37637,17 @@
       <c r="F5">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.067\% &amp; 85.8\\ \hline</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -35237,13 +37661,17 @@
       <c r="F6">
         <v>74.099999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.1\% &amp; 73.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
@@ -35257,13 +37685,17 @@
       <c r="F7">
         <v>77.099999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.133\% &amp; 81.6\\ \hline</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
@@ -35277,13 +37709,17 @@
       <c r="F8">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.167\% &amp; 85.9\\ \hline</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -35297,13 +37733,17 @@
       <c r="F9">
         <v>81.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.2\% &amp; 87.05\\ \hline</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>0.23333333333333334</v>
       </c>
@@ -35317,13 +37757,17 @@
       <c r="F10">
         <v>78.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.233\% &amp; 83.85\\ \hline</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
@@ -35337,13 +37781,17 @@
       <c r="F11">
         <v>96.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.267\% &amp; 88.4\\ \hline</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -35357,13 +37805,17 @@
       <c r="F12">
         <v>66.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.3\% &amp; 80.25\\ \hline</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -35377,13 +37829,17 @@
       <c r="F13">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.333\% &amp; 72.4\\ \hline</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <f t="shared" si="0"/>
         <v>0.36666666666666664</v>
       </c>
@@ -35397,13 +37853,17 @@
       <c r="F14">
         <v>97.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.367\% &amp; 82.4\\ \hline</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -35417,13 +37877,17 @@
       <c r="F15">
         <v>81.099999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.4\% &amp; 76.85\\ \hline</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <f t="shared" si="0"/>
         <v>0.43333333333333335</v>
       </c>
@@ -35437,13 +37901,17 @@
       <c r="F16">
         <v>76.400000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.433\% &amp; 72.35\\ \hline</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
@@ -35457,13 +37925,17 @@
       <c r="F17">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.467\% &amp; 64.95\\ \hline</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -35477,13 +37949,17 @@
       <c r="F18">
         <v>77.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.5\% &amp; 88.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
@@ -35497,13 +37973,17 @@
       <c r="F19">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.533\% &amp; 62.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <f t="shared" si="0"/>
         <v>0.56666666666666665</v>
       </c>
@@ -35517,13 +37997,17 @@
       <c r="F20">
         <v>78.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.567\% &amp; 67.25\\ \hline</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -35537,13 +38021,17 @@
       <c r="F21">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.6\% &amp; 65.25\\ \hline</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="7">
         <f t="shared" si="0"/>
         <v>0.6333333333333333</v>
       </c>
@@ -35557,13 +38045,17 @@
       <c r="F22">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.633\% &amp; 60.2\\ \hline</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
@@ -35577,13 +38069,17 @@
       <c r="F23">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.667\% &amp; 61.75\\ \hline</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="7">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
@@ -35597,13 +38093,17 @@
       <c r="F24">
         <v>52.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.7\% &amp; 47.35\\ \hline</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="7">
         <f t="shared" si="0"/>
         <v>0.73333333333333328</v>
       </c>
@@ -35617,13 +38117,17 @@
       <c r="F25">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.733\% &amp; 56.4\\ \hline</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="7">
         <f t="shared" si="0"/>
         <v>0.76666666666666672</v>
       </c>
@@ -35637,13 +38141,17 @@
       <c r="F26">
         <v>48.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.767\% &amp; 52.45\\ \hline</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="7">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -35657,13 +38165,17 @@
       <c r="F27">
         <v>55.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.8\% &amp; 53.8\\ \hline</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="7">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
@@ -35677,13 +38189,17 @@
       <c r="F28">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.833\% &amp; 44.9\\ \hline</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="7">
         <f t="shared" si="0"/>
         <v>0.8666666666666667</v>
       </c>
@@ -35697,13 +38213,17 @@
       <c r="F29">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.867\% &amp; 38.35\\ \hline</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="7">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
@@ -35717,13 +38237,17 @@
       <c r="F30">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.9\% &amp; 45.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="7">
         <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
@@ -35737,13 +38261,17 @@
       <c r="F31">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.933\% &amp; 22.3\\ \hline</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="7">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
@@ -35756,6 +38284,10 @@
       </c>
       <c r="F32">
         <v>6.3</v>
+      </c>
+      <c r="G32" t="str">
+        <f>CONCATENATE(ROUND(Table1[[#This Row],[Percentage Innoculated]], 3), "\% &amp; ", Table1[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>0.967\% &amp; 6.35\\ \hline</v>
       </c>
     </row>
   </sheetData>
@@ -35770,10 +38302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B7FD90-5F7B-48CB-9B79-F66970BC3A5A}">
-  <dimension ref="B2:E102"/>
+  <dimension ref="B2:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35782,15 +38314,15 @@
     <col min="3" max="3" width="31" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -35804,8 +38336,12 @@
       <c r="E3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>1 &amp; 6.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -35819,8 +38355,12 @@
       <c r="E4">
         <v>27.65</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>2 &amp; 27.375\\ \hline</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -35834,8 +38374,12 @@
       <c r="E5">
         <v>43.2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>3 &amp; 34.45\\ \hline</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -35849,8 +38393,12 @@
       <c r="E6">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>4 &amp; 38.8\\ \hline</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -35864,8 +38412,12 @@
       <c r="E7">
         <v>59.2</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>5 &amp; 53.15\\ \hline</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -35879,8 +38431,12 @@
       <c r="E8">
         <v>44.85</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>6 &amp; 58.375\\ \hline</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -35894,8 +38450,12 @@
       <c r="E9">
         <v>57.45</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>7 &amp; 51.975\\ \hline</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -35909,8 +38469,12 @@
       <c r="E10">
         <v>60.85</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>8 &amp; 58.175\\ \hline</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -35924,8 +38488,12 @@
       <c r="E11">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>9 &amp; 58\\ \hline</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -35939,8 +38507,12 @@
       <c r="E12">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>10 &amp; 59\\ \hline</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -35954,8 +38526,12 @@
       <c r="E13">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>11 &amp; 68.5\\ \hline</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -35969,8 +38545,12 @@
       <c r="E14">
         <v>74.25</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>12 &amp; 65.375\\ \hline</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -35984,8 +38564,12 @@
       <c r="E15">
         <v>72.150000000000006</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>13 &amp; 70.825\\ \hline</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -35999,8 +38583,12 @@
       <c r="E16">
         <v>62.05</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>14 &amp; 61.725\\ \hline</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>15</v>
       </c>
@@ -36014,8 +38602,12 @@
       <c r="E17">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>15 &amp; 74.2\\ \hline</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>16</v>
       </c>
@@ -36029,8 +38621,12 @@
       <c r="E18">
         <v>71.2</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>16 &amp; 78.05\\ \hline</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>17</v>
       </c>
@@ -36044,8 +38640,12 @@
       <c r="E19">
         <v>82.2</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>17 &amp; 82.35\\ \hline</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>18</v>
       </c>
@@ -36059,8 +38659,12 @@
       <c r="E20">
         <v>78.05</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>18 &amp; 80.275\\ \hline</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>19</v>
       </c>
@@ -36074,8 +38678,12 @@
       <c r="E21">
         <v>82.6</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>19 &amp; 82\\ \hline</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>20</v>
       </c>
@@ -36089,8 +38697,12 @@
       <c r="E22">
         <v>77.55</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>20 &amp; 83.725\\ \hline</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -36104,8 +38716,12 @@
       <c r="E23">
         <v>75.900000000000006</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>21 &amp; 77\\ \hline</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>22</v>
       </c>
@@ -36119,8 +38735,12 @@
       <c r="E24">
         <v>77.900000000000006</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>22 &amp; 76.05\\ \hline</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>23</v>
       </c>
@@ -36134,8 +38754,12 @@
       <c r="E25">
         <v>89.1</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>23 &amp; 85.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>24</v>
       </c>
@@ -36149,8 +38773,12 @@
       <c r="E26">
         <v>79.25</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>24 &amp; 88.775\\ \hline</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>25</v>
       </c>
@@ -36164,8 +38792,12 @@
       <c r="E27">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>25 &amp; 91.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>26</v>
       </c>
@@ -36179,8 +38811,12 @@
       <c r="E28">
         <v>76.05</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>26 &amp; 71.825\\ \hline</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>27</v>
       </c>
@@ -36194,8 +38830,12 @@
       <c r="E29">
         <v>86.1</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>27 &amp; 86.65\\ \hline</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>28</v>
       </c>
@@ -36209,8 +38849,12 @@
       <c r="E30">
         <v>85.55</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>28 &amp; 77.225\\ \hline</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>29</v>
       </c>
@@ -36224,8 +38868,12 @@
       <c r="E31">
         <v>78.8</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>29 &amp; 84.25\\ \hline</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>30</v>
       </c>
@@ -36239,8 +38887,12 @@
       <c r="E32">
         <v>85.35</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>30 &amp; 81.775\\ \hline</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>31</v>
       </c>
@@ -36254,8 +38906,12 @@
       <c r="E33">
         <v>91.55</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>31 &amp; 90.025\\ \hline</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>32</v>
       </c>
@@ -36269,8 +38925,12 @@
       <c r="E34">
         <v>88.4</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>32 &amp; 93.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>33</v>
       </c>
@@ -36284,8 +38944,12 @@
       <c r="E35">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>33 &amp; 97.15\\ \hline</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>34</v>
       </c>
@@ -36299,8 +38963,12 @@
       <c r="E36">
         <v>92.6</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>34 &amp; 85.9\\ \hline</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>35</v>
       </c>
@@ -36314,8 +38982,12 @@
       <c r="E37">
         <v>98.65</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>35 &amp; 91.825\\ \hline</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>36</v>
       </c>
@@ -36329,8 +39001,12 @@
       <c r="E38">
         <v>94.05</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>36 &amp; 93.925\\ \hline</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>37</v>
       </c>
@@ -36344,8 +39020,12 @@
       <c r="E39">
         <v>95.45</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>37 &amp; 95.325\\ \hline</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>38</v>
       </c>
@@ -36359,8 +39039,12 @@
       <c r="E40">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>38 &amp; 84.45\\ \hline</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>39</v>
       </c>
@@ -36374,8 +39058,12 @@
       <c r="E41">
         <v>89.2</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>39 &amp; 97.85\\ \hline</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>40</v>
       </c>
@@ -36389,8 +39077,12 @@
       <c r="E42">
         <v>95.55</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>40 &amp; 91.025\\ \hline</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>41</v>
       </c>
@@ -36404,8 +39096,12 @@
       <c r="E43">
         <v>85.3</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>41 &amp; 91.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>42</v>
       </c>
@@ -36419,8 +39115,12 @@
       <c r="E44">
         <v>84.4</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>42 &amp; 84.4\\ \hline</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>43</v>
       </c>
@@ -36434,8 +39134,12 @@
       <c r="E45">
         <v>93.2</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>43 &amp; 82\\ \hline</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>44</v>
       </c>
@@ -36449,8 +39153,12 @@
       <c r="E46">
         <v>106.1</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>44 &amp; 101.15\\ \hline</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>45</v>
       </c>
@@ -36464,8 +39172,12 @@
       <c r="E47">
         <v>102.25</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>45 &amp; 98.825\\ \hline</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>46</v>
       </c>
@@ -36479,8 +39191,12 @@
       <c r="E48">
         <v>86.35</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>46 &amp; 84.675\\ \hline</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>47</v>
       </c>
@@ -36494,8 +39210,12 @@
       <c r="E49">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>47 &amp; 91.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>48</v>
       </c>
@@ -36509,8 +39229,12 @@
       <c r="E50">
         <v>94.7</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G50" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>48 &amp; 93.45\\ \hline</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>49</v>
       </c>
@@ -36524,8 +39248,12 @@
       <c r="E51">
         <v>95.35</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>49 &amp; 100.025\\ \hline</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>50</v>
       </c>
@@ -36539,8 +39267,12 @@
       <c r="E52">
         <v>92.85</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>50 &amp; 90.425\\ \hline</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>51</v>
       </c>
@@ -36554,8 +39286,12 @@
       <c r="E53">
         <v>96.25</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>51 &amp; 102.025\\ \hline</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>52</v>
       </c>
@@ -36569,8 +39305,12 @@
       <c r="E54">
         <v>98.75</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>52 &amp; 100.975\\ \hline</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>53</v>
       </c>
@@ -36584,8 +39324,12 @@
       <c r="E55">
         <v>98.65</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>53 &amp; 97.675\\ \hline</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>54</v>
       </c>
@@ -36599,8 +39343,12 @@
       <c r="E56">
         <v>91.95</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>54 &amp; 102.575\\ \hline</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>55</v>
       </c>
@@ -36614,8 +39362,12 @@
       <c r="E57">
         <v>104.8</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>55 &amp; 100.85\\ \hline</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>56</v>
       </c>
@@ -36629,8 +39381,12 @@
       <c r="E58">
         <v>101.6</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>56 &amp; 99.3\\ \hline</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>57</v>
       </c>
@@ -36644,8 +39400,12 @@
       <c r="E59">
         <v>100.55</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>57 &amp; 97.975\\ \hline</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>58</v>
       </c>
@@ -36659,8 +39419,12 @@
       <c r="E60">
         <v>106.45</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>58 &amp; 99.725\\ \hline</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>59</v>
       </c>
@@ -36674,8 +39438,12 @@
       <c r="E61">
         <v>95.65</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G61" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>59 &amp; 97.375\\ \hline</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>60</v>
       </c>
@@ -36689,8 +39457,12 @@
       <c r="E62">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>60 &amp; 114.75\\ \hline</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>61</v>
       </c>
@@ -36704,8 +39476,12 @@
       <c r="E63">
         <v>103.05</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G63" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>61 &amp; 98.825\\ \hline</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>62</v>
       </c>
@@ -36719,8 +39495,12 @@
       <c r="E64">
         <v>110.25</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G64" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>62 &amp; 103.025\\ \hline</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>63</v>
       </c>
@@ -36734,8 +39514,12 @@
       <c r="E65">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G65" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>63 &amp; 107.9\\ \hline</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>64</v>
       </c>
@@ -36749,8 +39533,12 @@
       <c r="E66">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G66" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>64 &amp; 102.2\\ \hline</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>65</v>
       </c>
@@ -36764,8 +39552,12 @@
       <c r="E67">
         <v>92.3</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G67" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>65 &amp; 90.5\\ \hline</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>66</v>
       </c>
@@ -36779,8 +39571,12 @@
       <c r="E68">
         <v>102.65</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G68" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>66 &amp; 104.775\\ \hline</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>67</v>
       </c>
@@ -36794,8 +39590,12 @@
       <c r="E69">
         <v>104.3</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G69" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>67 &amp; 105.8\\ \hline</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>68</v>
       </c>
@@ -36809,8 +39609,12 @@
       <c r="E70">
         <v>103.05</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G70" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>68 &amp; 101.175\\ \hline</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>69</v>
       </c>
@@ -36824,8 +39628,12 @@
       <c r="E71">
         <v>96.35</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G71" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>69 &amp; 96.175\\ \hline</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>70</v>
       </c>
@@ -36839,8 +39647,12 @@
       <c r="E72">
         <v>108.7</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G72" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>70 &amp; 102.85\\ \hline</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>71</v>
       </c>
@@ -36854,8 +39666,12 @@
       <c r="E73">
         <v>95.95</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G73" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>71 &amp; 101.675\\ \hline</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>72</v>
       </c>
@@ -36869,8 +39685,12 @@
       <c r="E74">
         <v>103.2</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G74" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>72 &amp; 101.6\\ \hline</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>73</v>
       </c>
@@ -36884,8 +39704,12 @@
       <c r="E75">
         <v>106.85</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G75" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>73 &amp; 104.275\\ \hline</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>74</v>
       </c>
@@ -36899,8 +39723,12 @@
       <c r="E76">
         <v>101.3</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G76" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>74 &amp; 105.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>75</v>
       </c>
@@ -36914,8 +39742,12 @@
       <c r="E77">
         <v>99.4</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G77" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>75 &amp; 110.4\\ \hline</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>76</v>
       </c>
@@ -36929,8 +39761,12 @@
       <c r="E78">
         <v>108.3</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G78" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>76 &amp; 104.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>77</v>
       </c>
@@ -36944,8 +39780,12 @@
       <c r="E79">
         <v>113.65</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G79" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>77 &amp; 107.775\\ \hline</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>78</v>
       </c>
@@ -36959,8 +39799,12 @@
       <c r="E80">
         <v>106.1</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G80" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>78 &amp; 109.1\\ \hline</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>79</v>
       </c>
@@ -36974,8 +39818,12 @@
       <c r="E81">
         <v>104.65</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G81" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>79 &amp; 108.075\\ \hline</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>80</v>
       </c>
@@ -36989,8 +39837,12 @@
       <c r="E82">
         <v>101.25</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G82" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>80 &amp; 100.275\\ \hline</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>81</v>
       </c>
@@ -37004,8 +39856,12 @@
       <c r="E83">
         <v>104</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G83" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>81 &amp; 102.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>82</v>
       </c>
@@ -37019,8 +39875,12 @@
       <c r="E84">
         <v>102.05</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G84" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>82 &amp; 103.025\\ \hline</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>83</v>
       </c>
@@ -37034,8 +39894,12 @@
       <c r="E85">
         <v>106.5</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G85" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>83 &amp; 107.05\\ \hline</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>84</v>
       </c>
@@ -37049,8 +39913,12 @@
       <c r="E86">
         <v>114.5</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G86" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>84 &amp; 112.35\\ \hline</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>85</v>
       </c>
@@ -37064,8 +39932,12 @@
       <c r="E87">
         <v>104.05</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G87" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>85 &amp; 107.225\\ \hline</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>86</v>
       </c>
@@ -37079,8 +39951,12 @@
       <c r="E88">
         <v>112.5</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G88" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>86 &amp; 113.6\\ \hline</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>87</v>
       </c>
@@ -37094,8 +39970,12 @@
       <c r="E89">
         <v>107.55</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G89" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>87 &amp; 113.175\\ \hline</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>88</v>
       </c>
@@ -37109,8 +39989,12 @@
       <c r="E90">
         <v>102.75</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G90" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>88 &amp; 100.525\\ \hline</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>89</v>
       </c>
@@ -37124,8 +40008,12 @@
       <c r="E91">
         <v>112.8</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G91" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>89 &amp; 114.15\\ \hline</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>90</v>
       </c>
@@ -37139,8 +40027,12 @@
       <c r="E92">
         <v>104.35</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G92" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>90 &amp; 113.425\\ \hline</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <v>91</v>
       </c>
@@ -37154,8 +40046,12 @@
       <c r="E93">
         <v>116.1</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G93" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>91 &amp; 109.55\\ \hline</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>92</v>
       </c>
@@ -37169,8 +40065,12 @@
       <c r="E94">
         <v>105.1</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G94" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>92 &amp; 106.75\\ \hline</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>93</v>
       </c>
@@ -37184,8 +40084,12 @@
       <c r="E95">
         <v>113.6</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G95" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>93 &amp; 119.95\\ \hline</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <v>94</v>
       </c>
@@ -37199,8 +40103,12 @@
       <c r="E96">
         <v>105.25</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G96" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>94 &amp; 101.775\\ \hline</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>95</v>
       </c>
@@ -37214,8 +40122,12 @@
       <c r="E97">
         <v>113.25</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G97" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>95 &amp; 111.475\\ \hline</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>96</v>
       </c>
@@ -37229,8 +40141,12 @@
       <c r="E98">
         <v>112.4</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G98" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>96 &amp; 112.4\\ \hline</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>97</v>
       </c>
@@ -37244,8 +40160,12 @@
       <c r="E99">
         <v>102.25</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G99" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>97 &amp; 105.925\\ \hline</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>98</v>
       </c>
@@ -37259,8 +40179,12 @@
       <c r="E100">
         <v>106.7</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G100" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>98 &amp; 103.25\\ \hline</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>99</v>
       </c>
@@ -37274,8 +40198,12 @@
       <c r="E101">
         <v>102.25</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G101" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>99 &amp; 100.175\\ \hline</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>100</v>
       </c>
@@ -37288,6 +40216,10 @@
       </c>
       <c r="E102">
         <v>101.85</v>
+      </c>
+      <c r="G102" t="str">
+        <f>CONCATENATE(ROUND(Table2[[#This Row],[Population Size]], 3), " &amp; ", Table2[[#This Row],[Average Days till All Healthy]], "\\ \hline")</f>
+        <v>100 &amp; 99.825\\ \hline</v>
       </c>
     </row>
   </sheetData>
@@ -37300,6 +40232,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6173DA-20A4-4349-BC33-62E02DF98621}">
+  <dimension ref="A2:C95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <f t="shared" ref="B3:B66" si="0">A3/100</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>495.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <v>486.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C5">
+        <v>508.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="C6">
+        <v>402.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="C7">
+        <v>473.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <v>383.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="C9">
+        <v>387.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C10">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="C11">
+        <v>390.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="C12">
+        <v>383.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>357.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="C14">
+        <v>378.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="C15">
+        <v>340.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="C16">
+        <v>326.10000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C17">
+        <v>285.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="C18">
+        <v>278.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="C19">
+        <v>263.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="C20">
+        <v>265.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="C21">
+        <v>254.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="C22">
+        <v>277.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>245.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="C24">
+        <v>228.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>22</v>
+      </c>
+      <c r="B25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="C25">
+        <v>231.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>23</v>
+      </c>
+      <c r="B26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="C26">
+        <v>241.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>24</v>
+      </c>
+      <c r="B27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="C27">
+        <v>206.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>25</v>
+      </c>
+      <c r="B28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <v>216.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>26</v>
+      </c>
+      <c r="B29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="C29">
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>27</v>
+      </c>
+      <c r="B30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="C30">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>28</v>
+      </c>
+      <c r="B31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C31">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>29</v>
+      </c>
+      <c r="B32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C32">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="C33">
+        <v>153.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>31</v>
+      </c>
+      <c r="B34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="C34">
+        <v>172.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>32</v>
+      </c>
+      <c r="B35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="C35">
+        <v>167.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>33</v>
+      </c>
+      <c r="B36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="C36">
+        <v>174.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>34</v>
+      </c>
+      <c r="B37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="C37">
+        <v>164.45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>35</v>
+      </c>
+      <c r="B38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="C38">
+        <v>145.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>36</v>
+      </c>
+      <c r="B39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="C39">
+        <v>131.94999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>37</v>
+      </c>
+      <c r="B40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="C40">
+        <v>122.05</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="C41">
+        <v>109.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>39</v>
+      </c>
+      <c r="B42" s="9">
+        <f t="shared" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="C42">
+        <v>116.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>40</v>
+      </c>
+      <c r="B43" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C43">
+        <v>116.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>41</v>
+      </c>
+      <c r="B44" s="9">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="C44">
+        <v>115.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>42</v>
+      </c>
+      <c r="B45" s="9">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="C45">
+        <v>100.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>43</v>
+      </c>
+      <c r="B46" s="9">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="C46">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>44</v>
+      </c>
+      <c r="B47" s="9">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="C47">
+        <v>96.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>45</v>
+      </c>
+      <c r="B48" s="9">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="C48">
+        <v>106.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>46</v>
+      </c>
+      <c r="B49" s="9">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="C49">
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>47</v>
+      </c>
+      <c r="B50" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="C50">
+        <v>88.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>48</v>
+      </c>
+      <c r="B51" s="9">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="C51">
+        <v>95.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>49</v>
+      </c>
+      <c r="B52" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="C52">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>50</v>
+      </c>
+      <c r="B53" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C53">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>51</v>
+      </c>
+      <c r="B54" s="9">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="C54">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>52</v>
+      </c>
+      <c r="B55" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="C55">
+        <v>79.650000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>53</v>
+      </c>
+      <c r="B56" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+      <c r="C56">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>54</v>
+      </c>
+      <c r="B57" s="9">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="C57">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>55</v>
+      </c>
+      <c r="B58" s="9">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C58">
+        <v>69.55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>56</v>
+      </c>
+      <c r="B59" s="9">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C59">
+        <v>63.45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>57</v>
+      </c>
+      <c r="B60" s="9">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C60">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>58</v>
+      </c>
+      <c r="B61" s="9">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C61">
+        <v>61.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>59</v>
+      </c>
+      <c r="B62" s="9">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+      <c r="C62">
+        <v>68.849999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>60</v>
+      </c>
+      <c r="B63" s="9">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="C63">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>61</v>
+      </c>
+      <c r="B64" s="9">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+      <c r="C64">
+        <v>57.55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>62</v>
+      </c>
+      <c r="B65" s="9">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+      <c r="C65">
+        <v>56.95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>63</v>
+      </c>
+      <c r="B66" s="9">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="C66">
+        <v>56.15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>64</v>
+      </c>
+      <c r="B67" s="9">
+        <f t="shared" ref="B67:B92" si="1">A67/100</f>
+        <v>0.64</v>
+      </c>
+      <c r="C67">
+        <v>49.35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>65</v>
+      </c>
+      <c r="B68" s="9">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="C68">
+        <v>51.15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>66</v>
+      </c>
+      <c r="B69" s="9">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="C69">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>67</v>
+      </c>
+      <c r="B70" s="9">
+        <f t="shared" si="1"/>
+        <v>0.67</v>
+      </c>
+      <c r="C70">
+        <v>48.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>68</v>
+      </c>
+      <c r="B71" s="9">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="C71">
+        <v>50.35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>69</v>
+      </c>
+      <c r="B72" s="9">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="C72">
+        <v>43.45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>70</v>
+      </c>
+      <c r="B73" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="C73">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>71</v>
+      </c>
+      <c r="B74" s="9">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+      <c r="C74">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>72</v>
+      </c>
+      <c r="B75" s="9">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="C75">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>73</v>
+      </c>
+      <c r="B76" s="9">
+        <f t="shared" si="1"/>
+        <v>0.73</v>
+      </c>
+      <c r="C76">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>74</v>
+      </c>
+      <c r="B77" s="9">
+        <f t="shared" si="1"/>
+        <v>0.74</v>
+      </c>
+      <c r="C77">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>75</v>
+      </c>
+      <c r="B78" s="9">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="C78">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>76</v>
+      </c>
+      <c r="B79" s="9">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="C79">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>77</v>
+      </c>
+      <c r="B80" s="9">
+        <f t="shared" si="1"/>
+        <v>0.77</v>
+      </c>
+      <c r="C80">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>78</v>
+      </c>
+      <c r="B81" s="9">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="C81">
+        <v>40.65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>79</v>
+      </c>
+      <c r="B82" s="9">
+        <f t="shared" si="1"/>
+        <v>0.79</v>
+      </c>
+      <c r="C82">
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>80</v>
+      </c>
+      <c r="B83" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="C83">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>81</v>
+      </c>
+      <c r="B84" s="9">
+        <f t="shared" si="1"/>
+        <v>0.81</v>
+      </c>
+      <c r="C84">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>82</v>
+      </c>
+      <c r="B85" s="9">
+        <f t="shared" si="1"/>
+        <v>0.82</v>
+      </c>
+      <c r="C85">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>83</v>
+      </c>
+      <c r="B86" s="9">
+        <f t="shared" si="1"/>
+        <v>0.83</v>
+      </c>
+      <c r="C86">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>84</v>
+      </c>
+      <c r="B87" s="9">
+        <f t="shared" si="1"/>
+        <v>0.84</v>
+      </c>
+      <c r="C87">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>85</v>
+      </c>
+      <c r="B88" s="9">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+      <c r="C88">
+        <v>43.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>86</v>
+      </c>
+      <c r="B89" s="9">
+        <f t="shared" si="1"/>
+        <v>0.86</v>
+      </c>
+      <c r="C89">
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>87</v>
+      </c>
+      <c r="B90" s="9">
+        <f t="shared" si="1"/>
+        <v>0.87</v>
+      </c>
+      <c r="C90">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>88</v>
+      </c>
+      <c r="B91" s="9">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+      <c r="C91">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>89</v>
+      </c>
+      <c r="B92" s="9">
+        <f t="shared" si="1"/>
+        <v>0.89</v>
+      </c>
+      <c r="C92">
+        <v>50.85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="11"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AEE999-1CFC-42E5-925E-AAECCC3CB05B}">
   <dimension ref="B1:G922"/>
   <sheetViews>
@@ -57564,7 +61616,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57574,12 +61626,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671642DF-009F-4EA4-BC90-1C7B19B2F851}">
   <dimension ref="D2:J921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
